--- a/files/7lesson/2EXLfile.xlsx
+++ b/files/7lesson/2EXLfile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\SyncRep\files\7lesson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\SyncProject\files\7lesson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B072C6BB-098B-4B2F-AFA9-0FD94E3B44E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="510" windowWidth="11130" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="510" windowWidth="11130" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Вася</t>
   </si>
@@ -46,12 +45,21 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Оценки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,81 +370,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
         <v>8</v>
       </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
